--- a/mobile-scrapped-data.xlsx
+++ b/mobile-scrapped-data.xlsx
@@ -430,39 +430,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/c/u/0/galaxy-m34-5g-without-charger-sm-m346b-samsung-original-imagrtuhqgre7gr3.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/n/w/e/-original-imagtyw9fdfnsune.jpeg?q=70</v>
       </c>
       <c r="B2" t="str">
-        <v>SAMSUNG Galaxy M34 5G without charger (Midnight Blue, 128 GB)</v>
+        <v>SAMSUNG Galaxy F34 5G (Mystic Green, 128 GB)</v>
       </c>
       <c r="C2" t="str">
-        <v>₹14,450</v>
+        <v>₹14,999</v>
       </c>
       <c r="D2" t="str">
-        <v>6 GB RAM | 128 GB ROM</v>
+        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E2" t="str">
-        <v>16.51 cm (6.5 inch) Display</v>
+        <v>16.51 cm (6.5 inch) Full HD+ Display</v>
       </c>
       <c r="F2" t="str">
-        <v>50MP Rear Camera</v>
+        <v>50MP (OIS) + 8MP + 2MP | 13MP Front Camera</v>
       </c>
       <c r="G2" t="str">
         <v>6000 mAh Battery</v>
       </c>
       <c r="H2" t="str">
-        <v>Domestic 1 Year of Device &amp; 6 Months for In-Box Accessories</v>
+        <v>Exynos 1280 Processor</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/p/i/g/galaxy-m34-5g-without-charger-sm-m346b-samsung-original-imagrhrhbuja8grh.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/c/u/0/galaxy-m34-5g-without-charger-sm-m346b-samsung-original-imagrtuhqgre7gr3.jpeg?q=70</v>
       </c>
       <c r="B3" t="str">
-        <v>SAMSUNG Galaxy M34 5G without charger (Prism Silver, 128 GB)</v>
+        <v>SAMSUNG Galaxy M34 5G without charger (Midnight Blue, 128 GB)</v>
       </c>
       <c r="C3" t="str">
-        <v>₹14,979</v>
+        <v>₹14,450</v>
       </c>
       <c r="D3" t="str">
         <v>6 GB RAM | 128 GB ROM</v>
@@ -482,276 +482,276 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/k/a/l/galaxy-s21-fe-5g-sm-g990bza4ins-samsung-original-imah3gndw9qvwxn4.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/p/i/g/galaxy-m34-5g-without-charger-sm-m346b-samsung-original-imagrhrhbuja8grh.jpeg?q=70</v>
       </c>
       <c r="B4" t="str">
-        <v>Samsung Galaxy S21 FE 5G with Snapdragon 888 (Graphite, 256 GB)</v>
+        <v>SAMSUNG Galaxy M34 5G without charger (Prism Silver, 128 GB)</v>
       </c>
       <c r="C4" t="str">
-        <v>₹27,407</v>
+        <v>₹14,999</v>
       </c>
       <c r="D4" t="str">
-        <v>8 GB RAM | 256 GB ROM</v>
+        <v>6 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E4" t="str">
-        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
+        <v>16.51 cm (6.5 inch) Display</v>
       </c>
       <c r="F4" t="str">
-        <v>12MP + 12MP + 8MP (OIS) | 32MP Front Camera</v>
+        <v>50MP Rear Camera</v>
       </c>
       <c r="G4" t="str">
-        <v>4500 mAh Lithium-ion Battery</v>
+        <v>6000 mAh Battery</v>
       </c>
       <c r="H4" t="str">
-        <v>Snapdragon 888 Processor</v>
+        <v>Domestic 1 Year of Device &amp; 6 Months for In-Box Accessories</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/n/w/e/-original-imagtyw9fdfnsune.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/j/t/5/galaxy-m34-without-charger-sm-m346b-samsung-original-imagrue3vhfgvwjz.jpeg?q=70</v>
       </c>
       <c r="B5" t="str">
-        <v>SAMSUNG Galaxy F34 5G (Mystic Green, 128 GB)</v>
+        <v>SAMSUNG Galaxy M34 5G (Waterfall Blue, 128 GB)</v>
       </c>
       <c r="C5" t="str">
-        <v>₹14,999</v>
+        <v>₹14,357</v>
       </c>
       <c r="D5" t="str">
-        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
+        <v>6 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E5" t="str">
-        <v>16.51 cm (6.5 inch) Full HD+ Display</v>
+        <v>16.51 cm (6.5 inch) Display</v>
       </c>
       <c r="F5" t="str">
-        <v>50MP (OIS) + 8MP + 2MP | 13MP Front Camera</v>
+        <v>50MP Rear Camera</v>
       </c>
       <c r="G5" t="str">
         <v>6000 mAh Battery</v>
       </c>
       <c r="H5" t="str">
-        <v>Exynos 1280 Processor</v>
+        <v>Domestic 1 Year of Device &amp; 6 Months for In-Box Accessories</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/g/r/b/-original-imagzm8q5gtgycxu.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/k/a/l/galaxy-s21-fe-5g-sm-g990bza4ins-samsung-original-imah3gndw9qvwxn4.jpeg?q=70</v>
       </c>
       <c r="B6" t="str">
-        <v>SAMSUNG Galaxy S23 5G (Lavender, 256 GB)</v>
+        <v>Samsung Galaxy S21 FE 5G with Snapdragon 888 (Graphite, 256 GB)</v>
       </c>
       <c r="C6" t="str">
-        <v>₹52,999</v>
+        <v>₹27,393</v>
       </c>
       <c r="D6" t="str">
         <v>8 GB RAM | 256 GB ROM</v>
       </c>
       <c r="E6" t="str">
-        <v>15.49 cm (6.1 inch) Full HD+ Display</v>
+        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
       </c>
       <c r="F6" t="str">
-        <v>50MP + 10MP + 12MP | 12MP Front Camera</v>
+        <v>12MP + 12MP + 8MP (OIS) | 32MP Front Camera</v>
       </c>
       <c r="G6" t="str">
-        <v>3900 mAh Lithium Ion Battery</v>
+        <v>4500 mAh Lithium-ion Battery</v>
       </c>
       <c r="H6" t="str">
-        <v>Qualcomm Snapdragon 8 Gen 2 Processor</v>
+        <v>Snapdragon 888 Processor</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/j/t/5/galaxy-m34-without-charger-sm-m346b-samsung-original-imagrue3vhfgvwjz.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/x/7/n/-original-imagzm8qzhpuwrak.jpeg?q=70</v>
       </c>
       <c r="B7" t="str">
-        <v>SAMSUNG Galaxy M34 5G (Waterfall Blue, 128 GB)</v>
+        <v>SAMSUNG Galaxy S23 5G (Cream, 128 GB)</v>
       </c>
       <c r="C7" t="str">
-        <v>₹14,357</v>
+        <v>₹47,999</v>
       </c>
       <c r="D7" t="str">
-        <v>6 GB RAM | 128 GB ROM</v>
+        <v>8 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E7" t="str">
-        <v>16.51 cm (6.5 inch) Display</v>
+        <v>15.49 cm (6.1 inch) Full HD+ Display</v>
       </c>
       <c r="F7" t="str">
-        <v>50MP Rear Camera</v>
+        <v>50MP + 10MP + 12MP | 12MP Front Camera</v>
       </c>
       <c r="G7" t="str">
-        <v>6000 mAh Battery</v>
+        <v>3900 mAh Lithium Ion Battery</v>
       </c>
       <c r="H7" t="str">
-        <v>Domestic 1 Year of Device &amp; 6 Months for In-Box Accessories</v>
+        <v>Qualcomm Snapdragon 8 Gen 2 Processor</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/j/t/l/galaxy-s21-fe-5g-sm-g990blg4ins-samsung-original-imah3nsvxpssscxu.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/y/p/f/galaxy-m14-4g-sm-m145f-ds-samsung-original-imah2hupupcwggdq.jpeg?q=70</v>
       </c>
       <c r="B8" t="str">
-        <v>Samsung Galaxy S21 FE 5G with Snapdragon 888 (Olive, 256 GB)</v>
+        <v>SAMSUNG Galaxy M14 4G (Arctic Blue, 64 GB)</v>
       </c>
       <c r="C8" t="str">
-        <v>₹27,087</v>
+        <v>₹8,888</v>
       </c>
       <c r="D8" t="str">
-        <v>8 GB RAM | 256 GB ROM</v>
+        <v>4 GB RAM | 64 GB ROM</v>
       </c>
       <c r="E8" t="str">
-        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
+        <v>16.76 cm (6.6 inch) Display</v>
       </c>
       <c r="F8" t="str">
-        <v>12MP + 12MP + 8MP (OIS) | 32MP Front Camera</v>
+        <v>50MP Rear Camera</v>
       </c>
       <c r="G8" t="str">
-        <v>4500 mAh Lithium-ion Battery</v>
+        <v>6000 mAh Battery</v>
       </c>
       <c r="H8" t="str">
-        <v>Snapdragon 888 Processor</v>
+        <v>1 year for handset and 6 month for accessories</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/q/j/j/galaxy-s21-fe-5g-sm-g990bzb4ins-samsung-original-imah3kd95f7cejrg.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/j/t/5/galaxy-m34-without-charger-sm-m346b-samsung-original-imagrue3vhfgvwjz.jpeg?q=70</v>
       </c>
       <c r="B9" t="str">
-        <v>Samsung Galaxy S21 FE 5G with Snapdragon 888 (Navy, 256 GB)</v>
+        <v>SAMSUNG Galaxy M34 5G (Waterfall Blue, 128 GB)</v>
       </c>
       <c r="C9" t="str">
-        <v>₹27,387</v>
+        <v>₹17,980</v>
       </c>
       <c r="D9" t="str">
-        <v>8 GB RAM | 256 GB ROM</v>
+        <v>8 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E9" t="str">
-        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
+        <v>16.51 cm (6.5 inch) Display</v>
       </c>
       <c r="F9" t="str">
-        <v>12MP + 12MP + 8MP (OIS) | 32MP Front Camera</v>
+        <v>50MP Rear Camera</v>
       </c>
       <c r="G9" t="str">
-        <v>4500 mAh Lithium-ion Battery</v>
+        <v>6000 mAh Battery</v>
       </c>
       <c r="H9" t="str">
-        <v>Snapdragon 888 Processor</v>
+        <v>Domestic 1 Year of Device &amp; 6 Months for In-Box Accessories</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/y/p/f/galaxy-m14-4g-sm-m145f-ds-samsung-original-imah2hupupcwggdq.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/b/o/j/-original-imagztn8vv8htmyx.jpeg?q=70</v>
       </c>
       <c r="B10" t="str">
-        <v>SAMSUNG Galaxy M14 4G (Arctic Blue, 64 GB)</v>
+        <v>SAMSUNG Galaxy S23 FE (Graphite, 128 GB)</v>
       </c>
       <c r="C10" t="str">
-        <v>₹8,888</v>
+        <v>₹37,999</v>
       </c>
       <c r="D10" t="str">
-        <v>4 GB RAM | 64 GB ROM</v>
+        <v>8 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E10" t="str">
-        <v>16.76 cm (6.6 inch) Display</v>
+        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
       </c>
       <c r="F10" t="str">
-        <v>50MP Rear Camera</v>
+        <v>50MP + 12MP | 10MP Front Camera</v>
       </c>
       <c r="G10" t="str">
-        <v>6000 mAh Battery</v>
+        <v>4500 mAh Battery</v>
       </c>
       <c r="H10" t="str">
-        <v>1 year for handset and 6 month for accessories</v>
+        <v>Samsung Exynos 2200 Processor</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/j/t/5/galaxy-m34-without-charger-sm-m346b-samsung-original-imagrue3vhfgvwjz.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/k/c/b/galaxy-a15-5g-sm-a156ezkpins-samsung-original-imah3r43gdexw4ne.jpeg?q=70</v>
       </c>
       <c r="B11" t="str">
-        <v>SAMSUNG Galaxy M34 5G (Waterfall Blue, 128 GB)</v>
+        <v>SAMSUNG Galaxy A15 5G (Blue Black, 128 GB)</v>
       </c>
       <c r="C11" t="str">
-        <v>₹17,980</v>
+        <v>₹17,675</v>
       </c>
       <c r="D11" t="str">
-        <v>8 GB RAM | 128 GB ROM</v>
+        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E11" t="str">
-        <v>16.51 cm (6.5 inch) Display</v>
+        <v>16.51 cm (6.5 inch) Full HD+ Display</v>
       </c>
       <c r="F11" t="str">
-        <v>50MP Rear Camera</v>
+        <v>50MP + 5MP + 2MP | 13MP Front Camera</v>
       </c>
       <c r="G11" t="str">
-        <v>6000 mAh Battery</v>
+        <v>5000 mAh Battery</v>
       </c>
       <c r="H11" t="str">
-        <v>Domestic 1 Year of Device &amp; 6 Months for In-Box Accessories</v>
+        <v>Dimensity 6100+ Processor</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/b/o/j/-original-imagztn8vv8htmyx.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/j/c/o/-original-imah3xvkqv9ambzx.jpeg?q=70</v>
       </c>
       <c r="B12" t="str">
-        <v>SAMSUNG Galaxy S23 FE (Graphite, 128 GB)</v>
+        <v>SAMSUNG Galaxy A35 5G (Awesome Iceblue, 128 GB)</v>
       </c>
       <c r="C12" t="str">
-        <v>₹37,999</v>
+        <v>₹30,999</v>
       </c>
       <c r="D12" t="str">
-        <v>8 GB RAM | 128 GB ROM</v>
+        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E12" t="str">
-        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
+        <v>16.76 cm (6.6 inch) Full HD+ Display</v>
       </c>
       <c r="F12" t="str">
-        <v>50MP + 12MP | 10MP Front Camera</v>
+        <v>50MP + 8MP + 5MP | 13MP Front Camera</v>
       </c>
       <c r="G12" t="str">
-        <v>4500 mAh Battery</v>
+        <v>5000 mAh Battery</v>
       </c>
       <c r="H12" t="str">
-        <v>Samsung Exynos 2200 Processor</v>
+        <v>Samsung Exynos 1380 Processor</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/k/c/b/galaxy-a15-5g-sm-a156ezkpins-samsung-original-imah3r43gdexw4ne.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/x/7/n/-original-imagzm8qzhpuwrak.jpeg?q=70</v>
       </c>
       <c r="B13" t="str">
-        <v>SAMSUNG Galaxy A15 5G (Blue Black, 128 GB)</v>
+        <v>SAMSUNG Galaxy S23 5G (Cream, 256 GB)</v>
       </c>
       <c r="C13" t="str">
-        <v>₹18,399</v>
+        <v>₹52,999</v>
       </c>
       <c r="D13" t="str">
-        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 256 GB ROM</v>
       </c>
       <c r="E13" t="str">
-        <v>16.51 cm (6.5 inch) Full HD+ Display</v>
+        <v>15.49 cm (6.1 inch) Full HD+ Display</v>
       </c>
       <c r="F13" t="str">
-        <v>50MP + 5MP + 2MP | 13MP Front Camera</v>
+        <v>50MP + 10MP + 12MP | 12MP Front Camera</v>
       </c>
       <c r="G13" t="str">
-        <v>5000 mAh Battery</v>
+        <v>3900 mAh Lithium Ion Battery</v>
       </c>
       <c r="H13" t="str">
-        <v>Dimensity 6100+ Processor</v>
+        <v>Qualcomm Snapdragon 8 Gen 2 Processor</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/x/7/n/-original-imagzm8qzhpuwrak.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/g/r/b/-original-imagzm8q5gtgycxu.jpeg?q=70</v>
       </c>
       <c r="B14" t="str">
-        <v>SAMSUNG Galaxy S23 5G (Cream, 256 GB)</v>
+        <v>SAMSUNG Galaxy S23 5G (Lavender, 128 GB)</v>
       </c>
       <c r="C14" t="str">
-        <v>₹52,999</v>
+        <v>₹47,999</v>
       </c>
       <c r="D14" t="str">
-        <v>8 GB RAM | 256 GB ROM</v>
+        <v>8 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E14" t="str">
         <v>15.49 cm (6.1 inch) Full HD+ Display</v>
@@ -768,54 +768,54 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/j/c/o/-original-imah3xvkqv9ambzx.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/r/b/j/-original-imah3agqepywexex.jpeg?q=70</v>
       </c>
       <c r="B15" t="str">
-        <v>SAMSUNG Galaxy A35 5G (Awesome Iceblue, 128 GB)</v>
+        <v>SAMSUNG Galaxy F15 5G (Groovy Violet, 128 GB)</v>
       </c>
       <c r="C15" t="str">
-        <v>₹30,999</v>
+        <v>₹12,999</v>
       </c>
       <c r="D15" t="str">
-        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
+        <v>4 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E15" t="str">
-        <v>16.76 cm (6.6 inch) Full HD+ Display</v>
+        <v>16.51 cm (6.5 inch) Full HD+ Display</v>
       </c>
       <c r="F15" t="str">
-        <v>50MP + 8MP + 5MP | 13MP Front Camera</v>
+        <v>50MP + 5MP + 2MP | 13MP Front Camera</v>
       </c>
       <c r="G15" t="str">
-        <v>5000 mAh Battery</v>
+        <v>6000 mAh Lithium ion Battery</v>
       </c>
       <c r="H15" t="str">
-        <v>Samsung Exynos 1380 Processor</v>
+        <v>MediaTek Dimensity 6100+ Processor</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/g/f/i/galaxy-a15-5g-sm-a156ezbnins-samsung-original-imagwkgzv7vs8zd2.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/h/q/9/-original-imagzm8r8jzcumfa.jpeg?q=70</v>
       </c>
       <c r="B16" t="str">
-        <v>SAMSUNG Galaxy A15 5G (Blue, 128 GB)</v>
+        <v>SAMSUNG Galaxy S23 5G (Green, 128 GB)</v>
       </c>
       <c r="C16" t="str">
-        <v>₹17,342</v>
+        <v>₹47,999</v>
       </c>
       <c r="D16" t="str">
-        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E16" t="str">
-        <v>16.51 cm (6.5 inch) Full HD+ Display</v>
+        <v>15.49 cm (6.1 inch) Full HD+ Display</v>
       </c>
       <c r="F16" t="str">
-        <v>50MP + 5MP + 2MP | 13MP Front Camera</v>
+        <v>50MP + 10MP + 12MP | 12MP Front Camera</v>
       </c>
       <c r="G16" t="str">
-        <v>5000 mAh Battery</v>
+        <v>3900 mAh Lithium Ion Battery</v>
       </c>
       <c r="H16" t="str">
-        <v>Dimensity 6100+ Processor</v>
+        <v>Qualcomm Snapdragon 8 Gen 2 Processor</v>
       </c>
     </row>
     <row r="17">
@@ -846,16 +846,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/h/q/9/-original-imagzm8r8jzcumfa.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/g/r/b/-original-imagzm8q5gtgycxu.jpeg?q=70</v>
       </c>
       <c r="B18" t="str">
-        <v>SAMSUNG Galaxy S23 5G (Green, 128 GB)</v>
+        <v>SAMSUNG Galaxy S23 5G (Lavender, 256 GB)</v>
       </c>
       <c r="C18" t="str">
-        <v>₹47,999</v>
+        <v>₹52,999</v>
       </c>
       <c r="D18" t="str">
-        <v>8 GB RAM | 128 GB ROM</v>
+        <v>8 GB RAM | 256 GB ROM</v>
       </c>
       <c r="E18" t="str">
         <v>15.49 cm (6.1 inch) Full HD+ Display</v>
@@ -872,132 +872,132 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/6/c/5/-original-imagmefcgvntdtha.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/w/2/e/-original-imahyukdsyez5mnf.jpeg?q=70</v>
       </c>
       <c r="B19" t="str">
-        <v>SAMSUNG Galaxy A14 5G (Dark Red, 64 GB)</v>
+        <v>SAMSUNG Galaxy A55 5G (Awesome Navy, 128 GB)</v>
       </c>
       <c r="C19" t="str">
-        <v>₹11,899</v>
+        <v>₹39,999</v>
       </c>
       <c r="D19" t="str">
-        <v>4 GB RAM | 64 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E19" t="str">
-        <v>16.76 cm (6.6 inch) HD+ Display</v>
+        <v>16.76 cm (6.6 inch) Full HD+ Display</v>
       </c>
       <c r="F19" t="str">
-        <v>50MP + 2MP + 2MP | 13MP Front Camera</v>
+        <v>50MP + 12MP + 5MP | 32MP Front Camera</v>
       </c>
       <c r="G19" t="str">
-        <v>5000 mAh Lithium Ion Battery</v>
+        <v>5000 mAh Battery</v>
       </c>
       <c r="H19" t="str">
-        <v>SEC S5E8535 (Exynos 1330) Processor</v>
+        <v>Samsung Exynos 1480 Processor</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/r/b/j/-original-imah3agqepywexex.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/m/b/r/-original-imah3xvkkqpuzgpg.jpeg?q=70</v>
       </c>
       <c r="B20" t="str">
-        <v>SAMSUNG Galaxy F15 5G (Groovy Violet, 128 GB)</v>
+        <v>SAMSUNG Galaxy A35 5G (Awesome Navy, 128 GB)</v>
       </c>
       <c r="C20" t="str">
-        <v>₹12,999</v>
+        <v>₹30,999</v>
       </c>
       <c r="D20" t="str">
-        <v>4 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E20" t="str">
-        <v>16.51 cm (6.5 inch) Full HD+ Display</v>
+        <v>16.76 cm (6.6 inch) Full HD+ Display</v>
       </c>
       <c r="F20" t="str">
-        <v>50MP + 5MP + 2MP | 13MP Front Camera</v>
+        <v>50MP + 8MP + 5MP | 13MP Front Camera</v>
       </c>
       <c r="G20" t="str">
-        <v>6000 mAh Lithium ion Battery</v>
+        <v>5000 mAh Battery</v>
       </c>
       <c r="H20" t="str">
-        <v>MediaTek Dimensity 6100+ Processor</v>
+        <v>Samsung Exynos 1380 Processor</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/y/1/9/-original-imah3xvkwgpckvpf.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/z/j/v/galaxy-s21-fe-5g-sm-g990blv4ins-samsung-original-imah3nhk5c4dncfm.jpeg?q=70</v>
       </c>
       <c r="B21" t="str">
-        <v>SAMSUNG Galaxy A35 5G (Awesome Lilac, 256 GB)</v>
+        <v>Samsung Galaxy S21 FE 5G with Snapdragon 888 (Lavender, 256 GB)</v>
       </c>
       <c r="C21" t="str">
-        <v>₹33,999</v>
+        <v>₹27,870</v>
       </c>
       <c r="D21" t="str">
-        <v>8 GB RAM | 256 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 256 GB ROM</v>
       </c>
       <c r="E21" t="str">
-        <v>16.76 cm (6.6 inch) Full HD+ Display</v>
+        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
       </c>
       <c r="F21" t="str">
-        <v>50MP + 8MP + 5MP | 13MP Front Camera</v>
+        <v>12MP + 12MP + 8MP (OIS) | 32MP Front Camera</v>
       </c>
       <c r="G21" t="str">
-        <v>5000 mAh Battery</v>
+        <v>4500 mAh Lithium-ion Battery</v>
       </c>
       <c r="H21" t="str">
-        <v>Samsung Exynos 1380 Processor</v>
+        <v>Snapdragon 888 Processor</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/m/b/r/-original-imah3xvkkqpuzgpg.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/2/a/t/-original-imagnrhknw9pbg3t.jpeg?q=70</v>
       </c>
       <c r="B22" t="str">
-        <v>SAMSUNG Galaxy A35 5G (Awesome Navy, 256 GB)</v>
+        <v>SAMSUNG Galaxy A54 5G (Awesome Graphite, 128 GB)</v>
       </c>
       <c r="C22" t="str">
-        <v>₹33,999</v>
+        <v>₹25,973</v>
       </c>
       <c r="D22" t="str">
-        <v>8 GB RAM | 256 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E22" t="str">
-        <v>16.76 cm (6.6 inch) Full HD+ Display</v>
+        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
       </c>
       <c r="F22" t="str">
-        <v>50MP + 8MP + 5MP | 13MP Front Camera</v>
+        <v>50MP + 12MP + 5MP | 32MP Front Camera</v>
       </c>
       <c r="G22" t="str">
         <v>5000 mAh Battery</v>
       </c>
       <c r="H22" t="str">
-        <v>Samsung Exynos 1380 Processor</v>
+        <v>Exynos 1380, Octa Core Processor</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/w/2/e/-original-imahyukdsyez5mnf.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/m/c/s/-original-imagztn7sycc4h84.jpeg?q=70</v>
       </c>
       <c r="B23" t="str">
-        <v>SAMSUNG Galaxy A55 5G (Awesome Navy, 128 GB)</v>
+        <v>SAMSUNG Galaxy S23 FE (Mint, 128 GB)</v>
       </c>
       <c r="C23" t="str">
-        <v>₹39,999</v>
+        <v>₹37,999</v>
       </c>
       <c r="D23" t="str">
-        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 128 GB ROM</v>
       </c>
       <c r="E23" t="str">
-        <v>16.76 cm (6.6 inch) Full HD+ Display</v>
+        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
       </c>
       <c r="F23" t="str">
-        <v>50MP + 12MP + 5MP | 32MP Front Camera</v>
+        <v>50MP + 12MP | 10MP Front Camera</v>
       </c>
       <c r="G23" t="str">
-        <v>5000 mAh Battery</v>
+        <v>4500 mAh Battery</v>
       </c>
       <c r="H23" t="str">
-        <v>Samsung Exynos 1480 Processor</v>
+        <v>Samsung Exynos 2200 Processor</v>
       </c>
     </row>
     <row r="24">
@@ -1005,13 +1005,13 @@
         <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/m/b/r/-original-imah3xvkkqpuzgpg.jpeg?q=70</v>
       </c>
       <c r="B24" t="str">
-        <v>SAMSUNG Galaxy A35 5G (Awesome Navy, 128 GB)</v>
+        <v>SAMSUNG Galaxy A35 5G (Awesome Navy, 256 GB)</v>
       </c>
       <c r="C24" t="str">
-        <v>₹30,999</v>
+        <v>₹33,999</v>
       </c>
       <c r="D24" t="str">
-        <v>8 GB RAM | 128 GB ROM | Expandable Upto 1 TB</v>
+        <v>8 GB RAM | 256 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E24" t="str">
         <v>16.76 cm (6.6 inch) Full HD+ Display</v>
@@ -1028,28 +1028,28 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/z/j/v/galaxy-s21-fe-5g-sm-g990blv4ins-samsung-original-imah3nhk5c4dncfm.jpeg?q=70</v>
+        <v>https://rukminim2.flixcart.com/image/312/312/xif0q/mobile/e/p/i/galaxy-a05-sm-a055flgdins-samsung-original-imagvvwkjfrnhsy5.jpeg?q=70</v>
       </c>
       <c r="B25" t="str">
-        <v>Samsung Galaxy S21 FE 5G with Snapdragon 888 (Lavender, 256 GB)</v>
+        <v>SAMSUNG Galaxy A05 (Light Green, 64 GB)</v>
       </c>
       <c r="C25" t="str">
-        <v>₹27,883</v>
+        <v>₹8,499</v>
       </c>
       <c r="D25" t="str">
-        <v>8 GB RAM | 256 GB ROM</v>
+        <v>4 GB RAM | 64 GB ROM | Expandable Upto 1 TB</v>
       </c>
       <c r="E25" t="str">
-        <v>16.26 cm (6.4 inch) Full HD+ Display</v>
+        <v>17.12 cm (6.74 inch) HD+ Display</v>
       </c>
       <c r="F25" t="str">
-        <v>12MP + 12MP + 8MP (OIS) | 32MP Front Camera</v>
+        <v>50MP + 2MP | 8MP Front Camera</v>
       </c>
       <c r="G25" t="str">
-        <v>4500 mAh Lithium-ion Battery</v>
+        <v>5000 mAh Battery</v>
       </c>
       <c r="H25" t="str">
-        <v>Snapdragon 888 Processor</v>
+        <v>Helio G85 Processor</v>
       </c>
     </row>
   </sheetData>
